--- a/Sem13/BaseDeDatos.xlsx
+++ b/Sem13/BaseDeDatos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIO" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>IDUSUARIO</t>
   </si>
@@ -143,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +185,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,12 +245,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +298,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,51 +811,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -800,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -811,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -822,14 +888,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>55</v>
+      </c>
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>80</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
     </row>
@@ -842,9 +930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,28 +967,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1294,15 +1382,166 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>55</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="15">
+        <v>50</v>
+      </c>
+      <c r="F18" s="15">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>55</v>
+      </c>
+      <c r="B19" s="15">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="15">
+        <v>50</v>
+      </c>
+      <c r="F19" s="15">
+        <v>15</v>
+      </c>
+      <c r="G19" s="15">
+        <v>3</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>55</v>
+      </c>
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15">
+        <v>50</v>
+      </c>
+      <c r="F20" s="15">
+        <v>15</v>
+      </c>
+      <c r="G20" s="15">
+        <v>3</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>80</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="14">
+        <v>33</v>
+      </c>
+      <c r="F21" s="14">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>80</v>
+      </c>
+      <c r="B22" s="14">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="14">
+        <v>40</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>80</v>
+      </c>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="17">
+        <v>33</v>
+      </c>
+      <c r="F23" s="17">
+        <v>10</v>
+      </c>
+      <c r="G23" s="17">
+        <v>3</v>
+      </c>
+      <c r="H23" s="17">
+        <v>2</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>